--- a/Monato eleganta.xlsx
+++ b/Monato eleganta.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="13320" activeTab="5"/>
+    <workbookView windowWidth="17520" windowHeight="12345" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="月" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="季月" sheetId="11" r:id="rId5"/>
     <sheet name="季序" sheetId="12" r:id="rId6"/>
     <sheet name="Sheet1" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet2" sheetId="13" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet1!#REF!</definedName>
@@ -1127,7 +1128,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2382" uniqueCount="944">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2609" uniqueCount="1020">
   <si>
     <t>一月</t>
   </si>
@@ -3959,17 +3960,245 @@
   </si>
   <si>
     <t>春神</t>
+  </si>
+  <si>
+    <t>望宿月</t>
+  </si>
+  <si>
+    <t>星宿</t>
+  </si>
+  <si>
+    <t>翼宿</t>
+  </si>
+  <si>
+    <t>角宿</t>
+  </si>
+  <si>
+    <t>氐宿</t>
+  </si>
+  <si>
+    <t>心宿</t>
+  </si>
+  <si>
+    <t>箕宿</t>
+  </si>
+  <si>
+    <t>牛宿</t>
+  </si>
+  <si>
+    <t>室宿</t>
+  </si>
+  <si>
+    <t>娄宿</t>
+  </si>
+  <si>
+    <t>昴宿</t>
+  </si>
+  <si>
+    <t>觜宿</t>
+  </si>
+  <si>
+    <t>鬼宿</t>
+  </si>
+  <si>
+    <t>十二因缘月</t>
+  </si>
+  <si>
+    <t>行</t>
+  </si>
+  <si>
+    <t>识</t>
+  </si>
+  <si>
+    <t>名色</t>
+  </si>
+  <si>
+    <t>六处</t>
+  </si>
+  <si>
+    <t>触</t>
+  </si>
+  <si>
+    <t>受</t>
+  </si>
+  <si>
+    <t>爱</t>
+  </si>
+  <si>
+    <t>取</t>
+  </si>
+  <si>
+    <t>有</t>
+  </si>
+  <si>
+    <t>生</t>
+  </si>
+  <si>
+    <t>老死</t>
+  </si>
+  <si>
+    <t>元明</t>
+  </si>
+  <si>
+    <t>密典用语</t>
+  </si>
+  <si>
+    <t>痴</t>
+  </si>
+  <si>
+    <t>善</t>
+  </si>
+  <si>
+    <t>超群</t>
+  </si>
+  <si>
+    <t>龟</t>
+  </si>
+  <si>
+    <t>水兽</t>
+  </si>
+  <si>
+    <t>嫠</t>
+  </si>
+  <si>
+    <t>痣</t>
+  </si>
+  <si>
+    <t>凿</t>
+  </si>
+  <si>
+    <t>荣</t>
+  </si>
+  <si>
+    <t>梦</t>
+  </si>
+  <si>
+    <t>君</t>
+  </si>
+  <si>
+    <t>盈</t>
+  </si>
+  <si>
+    <t>莲花应化</t>
+  </si>
+  <si>
+    <t>神变</t>
+  </si>
+  <si>
+    <t>苦行</t>
+  </si>
+  <si>
+    <t>具香</t>
+  </si>
+  <si>
+    <t>遍见</t>
+  </si>
+  <si>
+    <t>作净</t>
+  </si>
+  <si>
+    <t>明净</t>
+  </si>
+  <si>
+    <t>具醉</t>
+  </si>
+  <si>
+    <t>具贤</t>
+  </si>
+  <si>
+    <t>游戏</t>
+  </si>
+  <si>
+    <t>持众</t>
+  </si>
+  <si>
+    <t>庄严</t>
+  </si>
+  <si>
+    <t>满意</t>
+  </si>
+  <si>
+    <t>十二律</t>
+  </si>
+  <si>
+    <t>姑冼</t>
+  </si>
+  <si>
+    <t>泰族</t>
+  </si>
+  <si>
+    <t>姑显</t>
+  </si>
+  <si>
+    <t>中吕</t>
+  </si>
+  <si>
+    <t>瑞宾</t>
+  </si>
+  <si>
+    <t>亡射</t>
+  </si>
+  <si>
+    <t>和历</t>
+  </si>
+  <si>
+    <t>皐月</t>
+  </si>
+  <si>
+    <t>和式</t>
+  </si>
+  <si>
+    <t>神有（出云地区）</t>
+  </si>
+  <si>
+    <t>雷元</t>
+  </si>
+  <si>
+    <t>太郎</t>
+  </si>
+  <si>
+    <t>十二月花</t>
+  </si>
+  <si>
+    <t>蔷薇</t>
+  </si>
+  <si>
+    <t>紫薇</t>
+  </si>
+  <si>
+    <t>长寿</t>
+  </si>
+  <si>
+    <t>兰</t>
+  </si>
+  <si>
+    <t>汉月</t>
+  </si>
+  <si>
+    <t>中式</t>
+  </si>
+  <si>
+    <t>首阳</t>
+  </si>
+  <si>
+    <t>花潮</t>
+  </si>
+  <si>
+    <t>绀香</t>
+  </si>
+  <si>
+    <t>南宫</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="33">
     <font>
@@ -4055,64 +4284,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -4129,11 +4300,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4145,16 +4347,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4168,27 +4378,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4242,13 +4471,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4266,85 +4573,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4356,67 +4633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4665,12 +4894,25 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4679,8 +4921,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4701,21 +4943,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -4726,15 +4953,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4757,7 +4975,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -4767,148 +4996,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4925,7 +5154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="34" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="25" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -5078,52 +5307,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -5425,8 +5654,8 @@
   <sheetPr/>
   <dimension ref="A1:L122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8168,7 +8397,7 @@
   </sheetPr>
   <dimension ref="A1:AP21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AC25" sqref="AC25"/>
     </sheetView>
   </sheetViews>
@@ -13858,7 +14087,7 @@
   </sheetPr>
   <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
@@ -16150,4 +16379,756 @@
   <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="5.125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="5.125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="7" width="5.125" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="5.125" customWidth="1"/>
+    <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="11" max="11" width="17.125" customWidth="1"/>
+    <col min="12" max="12" width="7" customWidth="1"/>
+    <col min="13" max="13" width="5.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C1" t="s">
+        <v>946</v>
+      </c>
+      <c r="D1" t="s">
+        <v>947</v>
+      </c>
+      <c r="E1" t="s">
+        <v>948</v>
+      </c>
+      <c r="F1" t="s">
+        <v>949</v>
+      </c>
+      <c r="G1" t="s">
+        <v>950</v>
+      </c>
+      <c r="H1" t="s">
+        <v>951</v>
+      </c>
+      <c r="I1" t="s">
+        <v>952</v>
+      </c>
+      <c r="J1" t="s">
+        <v>953</v>
+      </c>
+      <c r="K1" t="s">
+        <v>954</v>
+      </c>
+      <c r="L1" t="s">
+        <v>955</v>
+      </c>
+      <c r="M1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>957</v>
+      </c>
+      <c r="B2" t="s">
+        <v>958</v>
+      </c>
+      <c r="C2" t="s">
+        <v>959</v>
+      </c>
+      <c r="D2" t="s">
+        <v>960</v>
+      </c>
+      <c r="E2" t="s">
+        <v>961</v>
+      </c>
+      <c r="F2" t="s">
+        <v>962</v>
+      </c>
+      <c r="G2" t="s">
+        <v>963</v>
+      </c>
+      <c r="H2" t="s">
+        <v>964</v>
+      </c>
+      <c r="I2" t="s">
+        <v>965</v>
+      </c>
+      <c r="J2" t="s">
+        <v>966</v>
+      </c>
+      <c r="K2" t="s">
+        <v>967</v>
+      </c>
+      <c r="L2" t="s">
+        <v>968</v>
+      </c>
+      <c r="M2" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>970</v>
+      </c>
+      <c r="B3" t="s">
+        <v>971</v>
+      </c>
+      <c r="C3" t="s">
+        <v>972</v>
+      </c>
+      <c r="D3" t="s">
+        <v>973</v>
+      </c>
+      <c r="E3" t="s">
+        <v>974</v>
+      </c>
+      <c r="F3" t="s">
+        <v>975</v>
+      </c>
+      <c r="G3" t="s">
+        <v>976</v>
+      </c>
+      <c r="H3" t="s">
+        <v>977</v>
+      </c>
+      <c r="I3" t="s">
+        <v>978</v>
+      </c>
+      <c r="J3" t="s">
+        <v>979</v>
+      </c>
+      <c r="K3" t="s">
+        <v>980</v>
+      </c>
+      <c r="L3" t="s">
+        <v>981</v>
+      </c>
+      <c r="M3" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>983</v>
+      </c>
+      <c r="B4" t="s">
+        <v>984</v>
+      </c>
+      <c r="C4" t="s">
+        <v>985</v>
+      </c>
+      <c r="D4" t="s">
+        <v>986</v>
+      </c>
+      <c r="E4" t="s">
+        <v>987</v>
+      </c>
+      <c r="F4" t="s">
+        <v>988</v>
+      </c>
+      <c r="G4" t="s">
+        <v>989</v>
+      </c>
+      <c r="H4" t="s">
+        <v>990</v>
+      </c>
+      <c r="I4" t="s">
+        <v>991</v>
+      </c>
+      <c r="J4" t="s">
+        <v>992</v>
+      </c>
+      <c r="K4" t="s">
+        <v>993</v>
+      </c>
+      <c r="L4" t="s">
+        <v>994</v>
+      </c>
+      <c r="M4" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>996</v>
+      </c>
+      <c r="B5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D5" t="s">
+        <v>997</v>
+      </c>
+      <c r="E5" t="s">
+        <v>503</v>
+      </c>
+      <c r="F5" t="s">
+        <v>175</v>
+      </c>
+      <c r="G5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H5" t="s">
+        <v>165</v>
+      </c>
+      <c r="I5" t="s">
+        <v>112</v>
+      </c>
+      <c r="J5" t="s">
+        <v>246</v>
+      </c>
+      <c r="K5" t="s">
+        <v>147</v>
+      </c>
+      <c r="L5" t="s">
+        <v>215</v>
+      </c>
+      <c r="M5" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>999</v>
+      </c>
+      <c r="E6" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J6" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B7" t="s">
+        <v>268</v>
+      </c>
+      <c r="C7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D7" t="s">
+        <v>514</v>
+      </c>
+      <c r="E7" t="s">
+        <v>271</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G7" t="s">
+        <v>516</v>
+      </c>
+      <c r="H7" t="s">
+        <v>274</v>
+      </c>
+      <c r="I7" t="s">
+        <v>275</v>
+      </c>
+      <c r="J7" t="s">
+        <v>276</v>
+      </c>
+      <c r="K7" t="s">
+        <v>520</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>256</v>
+      </c>
+      <c r="C8" t="s">
+        <v>257</v>
+      </c>
+      <c r="D8" t="s">
+        <v>258</v>
+      </c>
+      <c r="E8" t="s">
+        <v>259</v>
+      </c>
+      <c r="F8" t="s">
+        <v>260</v>
+      </c>
+      <c r="G8" t="s">
+        <v>261</v>
+      </c>
+      <c r="H8" t="s">
+        <v>262</v>
+      </c>
+      <c r="I8" t="s">
+        <v>263</v>
+      </c>
+      <c r="J8" t="s">
+        <v>264</v>
+      </c>
+      <c r="K8" t="s">
+        <v>265</v>
+      </c>
+      <c r="L8" t="s">
+        <v>266</v>
+      </c>
+      <c r="M8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13">
+      <c r="B9" t="s">
+        <v>817</v>
+      </c>
+      <c r="C9" t="s">
+        <v>269</v>
+      </c>
+      <c r="D9" t="s">
+        <v>818</v>
+      </c>
+      <c r="E9" t="s">
+        <v>259</v>
+      </c>
+      <c r="F9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" t="s">
+        <v>262</v>
+      </c>
+      <c r="I9" t="s">
+        <v>286</v>
+      </c>
+      <c r="J9" t="s">
+        <v>146</v>
+      </c>
+      <c r="K9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" t="s">
+        <v>92</v>
+      </c>
+      <c r="M9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13">
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D10" t="s">
+        <v>534</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G10" t="s">
+        <v>340</v>
+      </c>
+      <c r="H10" t="s">
+        <v>331</v>
+      </c>
+      <c r="I10" t="s">
+        <v>90</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="L10" t="s">
+        <v>540</v>
+      </c>
+      <c r="M10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13">
+      <c r="B11" t="s">
+        <v>542</v>
+      </c>
+      <c r="C11" t="s">
+        <v>543</v>
+      </c>
+      <c r="D11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" t="s">
+        <v>537</v>
+      </c>
+      <c r="F11" t="s">
+        <v>298</v>
+      </c>
+      <c r="G11" t="s">
+        <v>369</v>
+      </c>
+      <c r="H11" t="s">
+        <v>538</v>
+      </c>
+      <c r="I11" t="s">
+        <v>263</v>
+      </c>
+      <c r="J11" t="s">
+        <v>539</v>
+      </c>
+      <c r="K11" t="s">
+        <v>323</v>
+      </c>
+      <c r="L11" t="s">
+        <v>266</v>
+      </c>
+      <c r="M11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13">
+      <c r="B12" t="s">
+        <v>375</v>
+      </c>
+      <c r="C12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D12" t="s">
+        <v>544</v>
+      </c>
+      <c r="E12" t="s">
+        <v>346</v>
+      </c>
+      <c r="F12" t="s">
+        <v>283</v>
+      </c>
+      <c r="G12" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" t="s">
+        <v>87</v>
+      </c>
+      <c r="I12" t="s">
+        <v>358</v>
+      </c>
+      <c r="J12" t="s">
+        <v>546</v>
+      </c>
+      <c r="K12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="L12" t="s">
+        <v>551</v>
+      </c>
+      <c r="M12" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13">
+      <c r="B13" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>336</v>
+      </c>
+      <c r="D13" t="s">
+        <v>378</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" t="s">
+        <v>356</v>
+      </c>
+      <c r="H13" t="s">
+        <v>262</v>
+      </c>
+      <c r="I13" t="s">
+        <v>550</v>
+      </c>
+      <c r="J13" t="s">
+        <v>556</v>
+      </c>
+      <c r="K13" t="s">
+        <v>334</v>
+      </c>
+      <c r="L13" t="s">
+        <v>553</v>
+      </c>
+      <c r="M13" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
+      <c r="C14" t="s">
+        <v>317</v>
+      </c>
+      <c r="D14" t="s">
+        <v>281</v>
+      </c>
+      <c r="E14" t="s">
+        <v>354</v>
+      </c>
+      <c r="F14" t="s">
+        <v>549</v>
+      </c>
+      <c r="G14" t="s">
+        <v>363</v>
+      </c>
+      <c r="H14" t="s">
+        <v>341</v>
+      </c>
+      <c r="I14" t="s">
+        <v>365</v>
+      </c>
+      <c r="J14" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" t="s">
+        <v>265</v>
+      </c>
+      <c r="L14" t="s">
+        <v>557</v>
+      </c>
+      <c r="M14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="4:13">
+      <c r="D15" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" t="s">
+        <v>338</v>
+      </c>
+      <c r="G15" t="s">
+        <v>555</v>
+      </c>
+      <c r="H15" t="s">
+        <v>545</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>342</v>
+      </c>
+      <c r="M15" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="16" spans="4:13">
+      <c r="D16" t="s">
+        <v>558</v>
+      </c>
+      <c r="G16" t="s">
+        <v>559</v>
+      </c>
+      <c r="M16" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B17" t="s">
+        <v>900</v>
+      </c>
+      <c r="C17" t="s">
+        <v>862</v>
+      </c>
+      <c r="D17" t="s">
+        <v>867</v>
+      </c>
+      <c r="E17" t="s">
+        <v>802</v>
+      </c>
+      <c r="F17" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G17" t="s">
+        <v>884</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I17" t="s">
+        <v>888</v>
+      </c>
+      <c r="J17" t="s">
+        <v>893</v>
+      </c>
+      <c r="K17" t="s">
+        <v>1012</v>
+      </c>
+      <c r="L17" t="s">
+        <v>1013</v>
+      </c>
+      <c r="M17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B18" t="s">
+        <v>251</v>
+      </c>
+      <c r="C18" t="s">
+        <v>280</v>
+      </c>
+      <c r="D18" t="s">
+        <v>308</v>
+      </c>
+      <c r="E18" t="s">
+        <v>297</v>
+      </c>
+      <c r="F18" t="s">
+        <v>310</v>
+      </c>
+      <c r="G18" t="s">
+        <v>308</v>
+      </c>
+      <c r="H18" t="s">
+        <v>311</v>
+      </c>
+      <c r="I18" t="s">
+        <v>321</v>
+      </c>
+      <c r="J18" t="s">
+        <v>322</v>
+      </c>
+      <c r="K18" t="s">
+        <v>303</v>
+      </c>
+      <c r="L18" t="s">
+        <v>34</v>
+      </c>
+      <c r="M18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D19" t="s">
+        <v>477</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>501</v>
+      </c>
+      <c r="K19" t="s">
+        <v>831</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D20" t="s">
+        <v>477</v>
+      </c>
+      <c r="E20" t="s">
+        <v>507</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20" t="s">
+        <v>1019</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>444</v>
+      </c>
+      <c r="L20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>